--- a/Doc/UseCasesScénarios.xlsx
+++ b/Doc/UseCasesScénarios.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD7009-F622-48C2-950D-F9D6C0D343C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Identifiant</t>
   </si>
@@ -220,14 +219,11 @@
   <si>
     <t>le programme sauvergarde ces données les affichent et affiche le menu</t>
   </si>
-  <si>
-    <t>a supprimer</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,15 +602,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,51 +652,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67:E99"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,11 +960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1061,11 +1057,11 @@
       <c r="C14" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1129,7 +1125,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="1"/>
@@ -1138,7 +1134,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1143,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="1"/>
@@ -1156,14 +1152,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1174,7 +1170,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1179,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1192,7 +1188,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1197,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1235,31 +1231,31 @@
       <c r="C41" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="35"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="35"/>
-      <c r="D47" s="34"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="35"/>
-      <c r="D48" s="34"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="35"/>
-      <c r="D49" s="34"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
     </row>
@@ -1267,60 +1263,60 @@
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="41"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="41"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="41"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="41"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="41"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="31"/>
-      <c r="D56" s="41"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,7 +1326,7 @@
       <c r="B57" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="28" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="18"/>
@@ -1355,22 +1351,20 @@
       <c r="E59" s="18"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="13"/>
       <c r="C60" s="15"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="23"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -1379,8 +1373,8 @@
       <c r="B68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
@@ -1389,8 +1383,8 @@
       <c r="B69" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
@@ -1399,8 +1393,8 @@
       <c r="B70" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -1409,8 +1403,8 @@
       <c r="B71" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
@@ -1419,12 +1413,12 @@
       <c r="B72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -1436,8 +1430,8 @@
       <c r="C74" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
@@ -1447,8 +1441,8 @@
       <c r="C75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
@@ -1458,8 +1452,8 @@
       <c r="C76" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
@@ -1469,8 +1463,8 @@
       <c r="C77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
@@ -1480,8 +1474,8 @@
       <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
@@ -1491,237 +1485,237 @@
       <c r="C79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="13"/>
       <c r="C99" s="15"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="35"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="35"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="35"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="35"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="32"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="35"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="35"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="35"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="40" t="s">
+      <c r="B109" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="35"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="31"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
@@ -1730,11 +1724,11 @@
       <c r="B111" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="C111" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="30"/>
-      <c r="E111" s="32"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="24"/>
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
@@ -1744,173 +1738,173 @@
       <c r="C112" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D112" s="30"/>
-      <c r="E112" s="32"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="35"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
     </row>
     <row r="114" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="35"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
     </row>
     <row r="115" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="35"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
     </row>
     <row r="116" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="35"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
     </row>
     <row r="117" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="35"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
     </row>
     <row r="118" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="35"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="24"/>
-      <c r="E121" s="23"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="35"/>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D138" s="23"/>
-      <c r="E138" s="23"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D141" s="23"/>
-      <c r="E141" s="23"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D142" s="23"/>
-      <c r="E142" s="23"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D143" s="23"/>
-      <c r="E143" s="23"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D144" s="23"/>
-      <c r="E144" s="23"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D147" s="23"/>
-      <c r="E147" s="23"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35"/>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="35"/>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="35"/>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D152" s="23"/>
-      <c r="E152" s="23"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D153" s="23"/>
-      <c r="E153" s="23"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="D121:E153"/>
     <mergeCell ref="A32:A36"/>
@@ -1921,7 +1915,6 @@
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D67:E99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/Doc/UseCasesScénarios.xlsx
+++ b/Doc/UseCasesScénarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>Identifiant</t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>personalisé mon programme</t>
-  </si>
-  <si>
-    <t>presse sur "Option"</t>
-  </si>
-  <si>
-    <t>Le programme crée un boutton : "Changer d'identité","Changer la couleur du programme","Quitter les options"</t>
   </si>
   <si>
     <t>Quitter le programme</t>
@@ -145,30 +139,6 @@
     </r>
   </si>
   <si>
-    <t>le programme redemande le prénom et le nom les sauvegarde puis revien au menu des Option</t>
-  </si>
-  <si>
-    <t>le programme lui affiche plusieur choix de couleurs</t>
-  </si>
-  <si>
-    <t>presse sur une des couleurs a choix</t>
-  </si>
-  <si>
-    <t>le programme change de couleur avec celle choisie et revien au menu des Option</t>
-  </si>
-  <si>
-    <t>presse sur "changer d'identité "</t>
-  </si>
-  <si>
-    <t>presse sur "changer la couleur du programme"</t>
-  </si>
-  <si>
-    <t>presse sur "Quitter les options"</t>
-  </si>
-  <si>
-    <t>le programme revien au menu des options</t>
-  </si>
-  <si>
     <t xml:space="preserve">le programme s'ouvre et lui demande sont prénom et nom </t>
   </si>
   <si>
@@ -218,6 +188,18 @@
   </si>
   <si>
     <t>le programme sauvergarde ces données les affichent et affiche le menu</t>
+  </si>
+  <si>
+    <t>presse sur les option de couleur</t>
+  </si>
+  <si>
+    <t>le programme affiche 3 choix de couleur et affiche le menu</t>
+  </si>
+  <si>
+    <t>presse sur une couleur</t>
+  </si>
+  <si>
+    <t>le programme change la couleur</t>
   </si>
 </sst>
 </file>
@@ -635,6 +617,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -661,9 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,11 +942,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1024,7 +1006,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1033,7 +1015,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,11 +1039,11 @@
       <c r="C14" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1121,88 +1103,88 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>54</v>
+      <c r="A28" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>57</v>
+      <c r="A30" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,8 +1214,8 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="26"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="35"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="26"/>
@@ -1251,11 +1233,11 @@
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
     </row>
@@ -1338,7 +1320,7 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -1358,12 +1340,12 @@
       <c r="E60" s="18"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="42"/>
+      <c r="A67" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,58 +1415,46 @@
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
     </row>
-    <row r="75" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
     </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>42</v>
-      </c>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
     </row>
-    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>39</v>
-      </c>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>43</v>
-      </c>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
     </row>
@@ -1649,11 +1619,11 @@
       <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
+      <c r="A104" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="22"/>
       <c r="E104" s="24"/>
     </row>
@@ -1684,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C107" s="26"/>
       <c r="D107" s="24"/>
@@ -1695,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C108" s="26"/>
       <c r="D108" s="24"/>
@@ -1732,11 +1702,11 @@
     </row>
     <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D112" s="22"/>
       <c r="E112" s="24"/>
@@ -1772,136 +1742,136 @@
       <c r="E118" s="24"/>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="34"/>
-      <c r="E121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="36"/>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D139" s="35"/>
-      <c r="E139" s="35"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D150" s="35"/>
-      <c r="E150" s="35"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D151" s="35"/>
-      <c r="E151" s="35"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D152" s="35"/>
-      <c r="E152" s="35"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D153" s="35"/>
-      <c r="E153" s="35"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Doc/UseCasesScénarios.xlsx
+++ b/Doc/UseCasesScénarios.xlsx
@@ -184,22 +184,22 @@
     <t>lui redemande une valeur verticale</t>
   </si>
   <si>
-    <t>le programme affiche les règles et affiche le menu du jeu</t>
-  </si>
-  <si>
     <t>le programme sauvergarde ces données les affichent et affiche le menu</t>
   </si>
   <si>
     <t>presse sur les option de couleur</t>
   </si>
   <si>
-    <t>le programme affiche 3 choix de couleur et affiche le menu</t>
-  </si>
-  <si>
     <t>presse sur une couleur</t>
   </si>
   <si>
-    <t>le programme change la couleur</t>
+    <t xml:space="preserve">le programme affiche 3 choix de couleur </t>
+  </si>
+  <si>
+    <t>le programme change la couleur et affiche le menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le programme affiche les règles et affiche le menu </t>
   </si>
 </sst>
 </file>
@@ -623,9 +623,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1"/>
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="1"/>
@@ -1134,14 +1134,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1214,8 +1214,8 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="26"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="36"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="26"/>
@@ -1314,13 +1314,13 @@
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -1415,9 +1415,9 @@
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
@@ -1428,11 +1428,11 @@
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -1741,142 +1741,141 @@
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="35"/>
-      <c r="E121" s="36"/>
+    <row r="121" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="42"/>
+      <c r="E121" s="21"/>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="21"/>
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="21"/>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
     </row>
     <row r="151" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D153" s="36"/>
-      <c r="E153" s="36"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D121:E153"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A19:C19"/>

--- a/Doc/UseCasesScénarios.xlsx
+++ b/Doc/UseCasesScénarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>Identifiant</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">le programme affiche les règles et affiche le menu </t>
+  </si>
+  <si>
+    <t>Affiche le score le nom et le prénom dans le fichier score.txt</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -515,11 +524,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -620,32 +675,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,11 +1009,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1039,11 +1106,11 @@
       <c r="C14" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1125,7 +1192,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="1"/>
@@ -1134,7 +1201,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>49</v>
@@ -1215,7 +1282,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="26"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="35"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="26"/>
@@ -1233,11 +1300,11 @@
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
     </row>
@@ -1340,11 +1407,11 @@
       <c r="E60" s="18"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="33"/>
       <c r="E67" s="21"/>
     </row>
@@ -1619,11 +1686,11 @@
       <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="34" t="s">
+      <c r="A104" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
       <c r="D104" s="22"/>
       <c r="E104" s="24"/>
     </row>
@@ -1694,82 +1761,87 @@
       <c r="B111" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="24"/>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+    <row r="112" spans="1:5" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="15" t="s">
+      <c r="B112" s="45"/>
+      <c r="C112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="44"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="22"/>
-      <c r="E112" s="24"/>
-    </row>
-    <row r="113" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="26"/>
-      <c r="D113" s="24"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="24"/>
     </row>
-    <row r="114" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C114" s="26"/>
       <c r="D114" s="24"/>
       <c r="E114" s="24"/>
     </row>
-    <row r="115" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="26"/>
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
     </row>
-    <row r="116" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C116" s="26"/>
       <c r="D116" s="24"/>
       <c r="E116" s="24"/>
     </row>
-    <row r="117" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="26"/>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
     </row>
-    <row r="118" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C118" s="26"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
     </row>
-    <row r="121" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D121" s="42"/>
-      <c r="E121" s="21"/>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="21"/>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="26"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="34"/>
       <c r="E122" s="21"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
     </row>
@@ -1873,8 +1945,13 @@
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
     </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D154" s="21"/>
+      <c r="E154" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A112:A113"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A1:C1"/>

--- a/Doc/UseCasesScénarios.xlsx
+++ b/Doc/UseCasesScénarios.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -570,11 +570,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -678,10 +704,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,17 +746,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,11 +1050,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1106,11 +1147,11 @@
       <c r="C14" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1174,7 +1215,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1"/>
@@ -1183,7 +1224,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1192,7 +1233,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="1"/>
@@ -1201,14 +1242,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1219,7 +1260,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1269,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1237,7 +1278,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1287,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1281,8 +1322,8 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="26"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="26"/>
@@ -1300,11 +1341,11 @@
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
     </row>
@@ -1407,11 +1448,11 @@
       <c r="E60" s="18"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="33"/>
       <c r="E67" s="21"/>
     </row>
@@ -1497,171 +1538,168 @@
       <c r="A76" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="35"/>
+      <c r="C76" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="37"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="2"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="2"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="2"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="2"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="2"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="2"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="2"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="2"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="2"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="2"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="2"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="2"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="2"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
     </row>
     <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="2"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
     </row>
     <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="2"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="2"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="15"/>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
     </row>
@@ -1686,11 +1724,11 @@
       <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="22"/>
       <c r="E104" s="24"/>
     </row>
@@ -1761,17 +1799,17 @@
       <c r="B111" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="43" t="s">
+      <c r="C111" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="24"/>
     </row>
     <row r="112" spans="1:5" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="45"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="1" t="s">
         <v>56</v>
       </c>
@@ -1779,9 +1817,9 @@
       <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="44"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="46" t="s">
+      <c r="C113" s="39" t="s">
         <v>36</v>
       </c>
       <c r="D113" s="22"/>
@@ -1951,16 +1989,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/Doc/UseCasesScénarios.xlsx
+++ b/Doc/UseCasesScénarios.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CFE52-F86A-4B5B-BE26-8EC15532DC39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Identifiant</t>
   </si>
@@ -114,37 +115,12 @@
     <t>personalisé mon programme</t>
   </si>
   <si>
-    <t>Quitter le programme</t>
-  </si>
-  <si>
-    <t>arréter de jouer</t>
-  </si>
-  <si>
     <t>Use case 4</t>
   </si>
   <si>
-    <r>
-      <t>presse sur le boutton:"Quitter</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">le programme s'ouvre et lui demande sont prénom et nom </t>
   </si>
   <si>
-    <t>le programme s'arrete</t>
-  </si>
-  <si>
     <t xml:space="preserve">le jeu démare et affiche la grille , crée un compteur pour chaque effectuer, crée un compteur pour chaque tire touché et lui demande la position horizontal et vertical </t>
   </si>
   <si>
@@ -200,16 +176,13 @@
   </si>
   <si>
     <t xml:space="preserve">le programme affiche les règles et affiche le menu </t>
-  </si>
-  <si>
-    <t>Affiche le score le nom et le prénom dans le fichier score.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,14 +194,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -525,17 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -546,15 +500,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -600,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,20 +610,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -695,36 +631,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,9 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,14 +676,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,11 +961,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E98" sqref="E97:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,11 +977,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1114,7 +1041,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1123,7 +1050,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,11 +1074,11 @@
       <c r="C14" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1211,88 +1138,88 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>44</v>
+      <c r="A28" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>47</v>
+      <c r="A30" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,31 +1248,27 @@
       <c r="C41" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="26"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="26"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="26"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="26"/>
-      <c r="D49" s="25"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
     </row>
@@ -1353,60 +1276,55 @@
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="32"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="32"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="32"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="32"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="32"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="23"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,7 +1334,7 @@
       <c r="B57" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="18"/>
@@ -1428,7 +1346,7 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -1441,19 +1359,19 @@
       <c r="E59" s="18"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="15"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="33"/>
+      <c r="A67" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1525,177 +1443,117 @@
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="49" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="39"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="36"/>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="A79" s="36"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="A80" s="36"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
+    <row r="94" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
+    <row r="95" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+    <row r="96" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
     </row>
@@ -1704,159 +1562,120 @@
       <c r="E99" s="21"/>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="26"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="26"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="26"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
     </row>
     <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="26"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="24"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="23"/>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="26"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="26"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="26"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C108" s="26"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="23"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="24"/>
-    </row>
-    <row r="112" spans="1:5" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B112" s="38"/>
-      <c r="C112" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-    </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="41"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="22"/>
-      <c r="E113" s="24"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="23"/>
+    </row>
+    <row r="112" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="23"/>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="26"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="26"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
     </row>
     <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="26"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
     </row>
     <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="26"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
     </row>
     <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="26"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
     </row>
     <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="26"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
     </row>
     <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D122" s="34"/>
+      <c r="D122" s="30"/>
       <c r="E122" s="21"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,14 +1807,12 @@
       <c r="E154" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A104:C104"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A19:C19"/>

--- a/Doc/UseCasesScénarios.xlsx
+++ b/Doc/UseCasesScénarios.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CFE52-F86A-4B5B-BE26-8EC15532DC39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D47C2-131F-47CC-B405-97665489272C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$E$78</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -545,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -655,32 +658,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E98" sqref="E97:E98"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,11 +977,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1074,11 +1074,11 @@
       <c r="C14" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="1"/>
@@ -1151,7 +1151,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1187,7 +1187,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1248,8 +1248,8 @@
       <c r="C41" s="15"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" s="18"/>
@@ -1264,11 +1264,11 @@
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
     </row>
@@ -1366,11 +1366,11 @@
       <c r="E60" s="18"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="29"/>
       <c r="E67" s="21"/>
     </row>
@@ -1578,79 +1578,79 @@
       <c r="E103" s="23"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="44"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="23"/>
     </row>
     <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
     </row>
     <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
     </row>
     <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="44"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="23"/>
       <c r="E111" s="23"/>
     </row>
     <row r="112" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
     </row>
     <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="44"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="23"/>
     </row>
     <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="45"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
     </row>
@@ -1808,14 +1808,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>
